--- a/commands.xlsx
+++ b/commands.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC8BC89-8E6F-460D-864F-EAA10B2A35DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="170">
   <si>
     <t>Docker</t>
   </si>
@@ -241,6 +242,148 @@
   </si>
   <si>
     <t>EXPOSE &lt;80/tcp&gt;</t>
+  </si>
+  <si>
+    <t>Инструкция которая описывает, что должно выполниться после запуска контейнера</t>
+  </si>
+  <si>
+    <t>Базовый Image</t>
+  </si>
+  <si>
+    <t>FROM &lt;node:14-alpine as build&gt;</t>
+  </si>
+  <si>
+    <t>WORKDIR &lt;/opt/app&gt;</t>
+  </si>
+  <si>
+    <t>Установка рабочей директории</t>
+  </si>
+  <si>
+    <t>Docker File   (1 строка = 1 слой)</t>
+  </si>
+  <si>
+    <t>Аргумент при сборке , он не остается после сборки Image, только во время build</t>
+  </si>
+  <si>
+    <t>ARG &lt;CODE_VERSION=latest&gt;</t>
+  </si>
+  <si>
+    <t>Добавление файлов в образ</t>
+  </si>
+  <si>
+    <t>USER &lt;root&gt;</t>
+  </si>
+  <si>
+    <t>LABEL &lt;version="1.0"&gt;</t>
+  </si>
+  <si>
+    <t>ONBUILD &lt;ADD . /app/src&gt;</t>
+  </si>
+  <si>
+    <t>COPY &lt;*.json ./&gt;</t>
+  </si>
+  <si>
+    <t>Мета информация, останется в фильнам Image, можно будет посмотреть</t>
+  </si>
+  <si>
+    <t>Установка пользователя</t>
+  </si>
+  <si>
+    <t>Добавление файлов в образ (в отличии от copy, add может разорхивировать файлы, работает с url, может скачать файлы по url)</t>
+  </si>
+  <si>
+    <t>Простой docker file</t>
+  </si>
+  <si>
+    <t>FROM node:14</t>
+  </si>
+  <si>
+    <t>WORKDIR /opt/app</t>
+  </si>
+  <si>
+    <t>ADD . .</t>
+  </si>
+  <si>
+    <t>RUN npm install</t>
+  </si>
+  <si>
+    <t>RUN npm run build api</t>
+  </si>
+  <si>
+    <t>CMD ["node", "./dist/apps/api/main.js"]</t>
+  </si>
+  <si>
+    <t>Утилита dive для анализа docker image</t>
+  </si>
+  <si>
+    <t>wget https://github.com/wagoodman/dive/releases/download/v0.9.2/dive_0.9.2_linux_amd64.deb</t>
+  </si>
+  <si>
+    <t>sudo apt install ./dive_0.9.2_linux_amd64.deb</t>
+  </si>
+  <si>
+    <t>dive test:latest</t>
+  </si>
+  <si>
+    <t>Многоэтапная сборка dockerfile (multistage build)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;*.json ./&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;https://….tar.gz /home/dir&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&lt;--chown=root files* /somedir&gt;</t>
+    </r>
   </si>
   <si>
     <r>
@@ -251,10 +394,9 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>НЕ ПРОКИДЫВАЕТ ПОРТ!!!</t>
     </r>
@@ -262,128 +404,231 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Инструкция которая описывает, что должно выполниться после запуска контейнера</t>
-  </si>
-  <si>
-    <t>Базовый Image</t>
-  </si>
-  <si>
-    <t>FROM &lt;node:14-alpine as build&gt;</t>
-  </si>
-  <si>
-    <t>WORKDIR &lt;/opt/app&gt;</t>
-  </si>
-  <si>
-    <t>Установка рабочей директории</t>
-  </si>
-  <si>
-    <t>Docker File   (1 строка = 1 слой)</t>
-  </si>
-  <si>
-    <t>Аргумент при сборке , он не остается после сборки Image, только во время build</t>
-  </si>
-  <si>
-    <t>ARG &lt;CODE_VERSION=latest&gt;</t>
-  </si>
-  <si>
-    <t>Добавление файлов в образ</t>
-  </si>
-  <si>
-    <t>USER &lt;root&gt;</t>
-  </si>
-  <si>
-    <t>LABEL &lt;version="1.0"&gt;</t>
+    <t>FROM node:14-alpine as build</t>
+  </si>
+  <si>
+    <t>ADD *.json ./</t>
+  </si>
+  <si>
+    <t>FROM node:14-alpine</t>
+  </si>
+  <si>
+    <t>ADD package.json ./</t>
+  </si>
+  <si>
+    <t>RUN npm install --only=prod</t>
+  </si>
+  <si>
+    <t>COPY --from=build /opt/app/dist/apps/api ./dist</t>
+  </si>
+  <si>
+    <t>CMD ["node", "./dist/main.js"]</t>
+  </si>
+  <si>
+    <t>docker build -t go-api:latest .</t>
+  </si>
+  <si>
+    <t>Запуск сборки Image, -t Это тэг, произвольно имя, точка указывает где находится docker file</t>
+  </si>
+  <si>
+    <t>WORKDIR /srv/app</t>
+  </si>
+  <si>
+    <t>RUN CGO_ENABLED=0 GOOS=linux GOARCH=amd64 go build</t>
+  </si>
+  <si>
+    <t>FROM scratch</t>
+  </si>
+  <si>
+    <t>COPY --from=building /srv/app/docker-demo-2 ./</t>
+  </si>
+  <si>
+    <t>CMD ["./docker-demo-2"]</t>
+  </si>
+  <si>
+    <t>EXPOSE 9000</t>
+  </si>
+  <si>
+    <t>Сначала запускаются определенные команды для сборки приложения, в следующем FROM перекидывается само приложение которое уже собралось из прошлого + мб с какими то параметрами, это экономит место</t>
+  </si>
+  <si>
+    <t>Сети в docker</t>
+  </si>
+  <si>
+    <t>Она позволяет нам управлять сетями в docker, делать балансировку нагрузки и делать service discover (чтобы один контейнер видел второй)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ADD </t>
+      <t xml:space="preserve">За управление сетями в docker отвечает библиотека </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;*.json ./&gt;</t>
+      <t>libnetwork</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;https://….tar.gz /home/dir&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;--chown=root files* /somedir&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>ONBUILD &lt;ADD . /app/src&gt;</t>
-  </si>
-  <si>
-    <t>COPY &lt;*.json ./&gt;</t>
-  </si>
-  <si>
-    <t>Мета информация, останется в фильнам Image, можно будет посмотреть</t>
-  </si>
-  <si>
-    <t>Установка пользователя</t>
-  </si>
-  <si>
-    <t>Добавление файлов в образ (в отличии от copy, add может разорхивировать файлы, работает с url, может скачать файлы по url)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM golang:alpine as building  </t>
+  </si>
+  <si>
+    <t>Выбираем версию nodejs и os + даем ему имя (так делают в multistage)</t>
+  </si>
+  <si>
+    <t>Выбираем рабочую директорию</t>
+  </si>
+  <si>
+    <t>Копируем все файлы с расширением json в контейнер</t>
+  </si>
+  <si>
+    <t>Билдим приложение</t>
+  </si>
+  <si>
+    <t>Инсталируем модули которые указаны в конфигах json</t>
+  </si>
+  <si>
+    <t>Gеремещаем остальные файлы</t>
+  </si>
+  <si>
+    <t>Загрузка пакета прилжоения</t>
+  </si>
+  <si>
+    <t>Установка</t>
+  </si>
+  <si>
+    <t>Запуск Image через утилиту drive</t>
+  </si>
+  <si>
+    <t>Указываем рабочую директорию</t>
+  </si>
+  <si>
+    <t>Перемещаем только конкретный файл</t>
+  </si>
+  <si>
+    <t>Инсталируем</t>
+  </si>
+  <si>
+    <t>Перемещаем саму api из прошлого stage</t>
+  </si>
+  <si>
+    <t>Выбираем такое же окружение как в прошлом stage</t>
+  </si>
+  <si>
+    <t>Запуск прилжоения когда запустился контейнер</t>
+  </si>
+  <si>
+    <t>Выбираем окружение golang и даем ему этому stage</t>
+  </si>
+  <si>
+    <t>Копируем все файлы</t>
+  </si>
+  <si>
+    <t>Билд прилжоения</t>
+  </si>
+  <si>
+    <t>Выбираем окружение scratch</t>
+  </si>
+  <si>
+    <t>Рабочая директория</t>
+  </si>
+  <si>
+    <t>Копируем сбилженое приложение из прошлого stage</t>
+  </si>
+  <si>
+    <t>Запуск приложения после загрузки контейнера</t>
+  </si>
+  <si>
+    <t>Документируем что приложение на 9000 порту будет работать</t>
+  </si>
+  <si>
+    <t>Типы сетевых драйверов docker</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Macvlan</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Изолированная сеть между контейнерами</t>
+  </si>
+  <si>
+    <t>Удаление изоляции контейнера</t>
+  </si>
+  <si>
+    <t>Docker swarm</t>
+  </si>
+  <si>
+    <t>Уникальный mac адрес для контейнера</t>
+  </si>
+  <si>
+    <t>Без сети</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connect </t>
+  </si>
+  <si>
+    <t>Команды для управления сетями в контейнерах</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>disconnect</t>
+  </si>
+  <si>
+    <t>inscpect</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>prune</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>Подключить контейнер к сети</t>
+  </si>
+  <si>
+    <t>Создать сеть</t>
+  </si>
+  <si>
+    <t>Отключить контейнер от сети</t>
+  </si>
+  <si>
+    <t>Параметры сети</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,7 +647,15 @@
     </font>
     <font>
       <b/>
-      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -411,9 +664,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -429,7 +730,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -499,31 +800,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -803,405 +1353,792 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.88671875" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
     <col min="2" max="2" width="144" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B52" s="16"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="18"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:2" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="23"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="29"/>
+    </row>
+    <row r="87" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" s="44"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="37"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" s="37"/>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="39"/>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC8BC89-8E6F-460D-864F-EAA10B2A35DC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="214">
   <si>
     <t>Docker</t>
   </si>
@@ -466,6 +465,196 @@
     <t>Она позволяет нам управлять сетями в docker, делать балансировку нагрузки и делать service discover (чтобы один контейнер видел второй)</t>
   </si>
   <si>
+    <t xml:space="preserve">FROM golang:alpine as building  </t>
+  </si>
+  <si>
+    <t>Выбираем версию nodejs и os + даем ему имя (так делают в multistage)</t>
+  </si>
+  <si>
+    <t>Выбираем рабочую директорию</t>
+  </si>
+  <si>
+    <t>Копируем все файлы с расширением json в контейнер</t>
+  </si>
+  <si>
+    <t>Билдим приложение</t>
+  </si>
+  <si>
+    <t>Инсталируем модули которые указаны в конфигах json</t>
+  </si>
+  <si>
+    <t>Gеремещаем остальные файлы</t>
+  </si>
+  <si>
+    <t>Загрузка пакета прилжоения</t>
+  </si>
+  <si>
+    <t>Установка</t>
+  </si>
+  <si>
+    <t>Запуск Image через утилиту drive</t>
+  </si>
+  <si>
+    <t>Указываем рабочую директорию</t>
+  </si>
+  <si>
+    <t>Перемещаем только конкретный файл</t>
+  </si>
+  <si>
+    <t>Инсталируем</t>
+  </si>
+  <si>
+    <t>Перемещаем саму api из прошлого stage</t>
+  </si>
+  <si>
+    <t>Выбираем такое же окружение как в прошлом stage</t>
+  </si>
+  <si>
+    <t>Запуск прилжоения когда запустился контейнер</t>
+  </si>
+  <si>
+    <t>Выбираем окружение golang и даем ему этому stage</t>
+  </si>
+  <si>
+    <t>Копируем все файлы</t>
+  </si>
+  <si>
+    <t>Билд прилжоения</t>
+  </si>
+  <si>
+    <t>Выбираем окружение scratch</t>
+  </si>
+  <si>
+    <t>Рабочая директория</t>
+  </si>
+  <si>
+    <t>Копируем сбилженое приложение из прошлого stage</t>
+  </si>
+  <si>
+    <t>Запуск приложения после загрузки контейнера</t>
+  </si>
+  <si>
+    <t>Документируем что приложение на 9000 порту будет работать</t>
+  </si>
+  <si>
+    <t>Типы сетевых драйверов docker</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Macvlan</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Docker swarm</t>
+  </si>
+  <si>
+    <t>Уникальный mac адрес для контейнера</t>
+  </si>
+  <si>
+    <t>Без сети</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connect </t>
+  </si>
+  <si>
+    <t>Команды для управления сетями в контейнерах</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>disconnect</t>
+  </si>
+  <si>
+    <t>inscpect</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>prune</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>Подключить контейнер к сети</t>
+  </si>
+  <si>
+    <t>Создать сеть</t>
+  </si>
+  <si>
+    <t>Отключить контейнер от сети</t>
+  </si>
+  <si>
+    <t>Параметры сети</t>
+  </si>
+  <si>
+    <t>docker network ls</t>
+  </si>
+  <si>
+    <t>docker network create &lt;name network&gt;</t>
+  </si>
+  <si>
+    <t>docker network connect &lt;name network&gt; &lt;container name/id&gt;</t>
+  </si>
+  <si>
+    <t>docker inspect &lt;bridge,host…, либо созданный нетворк&gt;</t>
+  </si>
+  <si>
+    <t>docker run --name=&lt;name&gt; --network &lt;name network&gt; -p 3000:3000  -d &lt;name images&gt;</t>
+  </si>
+  <si>
+    <t>Просмотр всех сетей docker</t>
+  </si>
+  <si>
+    <t>Подробная информация о каждой сети (какие контейнера в нее входят и их ip-адреса+имена</t>
+  </si>
+  <si>
+    <t>Создание новой сети</t>
+  </si>
+  <si>
+    <t>Присоединение контейнеров к нетворку</t>
+  </si>
+  <si>
+    <t>Проброс портов в контейнер</t>
+  </si>
+  <si>
+    <t>docker container prune</t>
+  </si>
+  <si>
+    <r>
+      <t>Удаление всех контейнеров у которых толи нет тега, толи остановлены</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (пока непонятно)</t>
+    </r>
+  </si>
+  <si>
+    <t>Изолированная сеть между контейнерами (контейнеры видят друг друга)</t>
+  </si>
+  <si>
+    <t>Удаление изоляции контейнера (контейнер берет сетевые реквизиты хостовой машины, по сути если внутри контейнера весит какая то служба, то мы ее увидим выполнив 127.0.0.1:port</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">За управление сетями в docker отвечает библиотека </t>
     </r>
@@ -474,193 +663,166 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t>libnetwork</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">FROM golang:alpine as building  </t>
-  </si>
-  <si>
-    <t>Выбираем версию nodejs и os + даем ему имя (так делают в multistage)</t>
-  </si>
-  <si>
-    <t>Выбираем рабочую директорию</t>
-  </si>
-  <si>
-    <t>Копируем все файлы с расширением json в контейнер</t>
-  </si>
-  <si>
-    <t>Билдим приложение</t>
-  </si>
-  <si>
-    <t>Инсталируем модули которые указаны в конфигах json</t>
-  </si>
-  <si>
-    <t>Gеремещаем остальные файлы</t>
-  </si>
-  <si>
-    <t>Загрузка пакета прилжоения</t>
-  </si>
-  <si>
-    <t>Установка</t>
-  </si>
-  <si>
-    <t>Запуск Image через утилиту drive</t>
-  </si>
-  <si>
-    <t>Указываем рабочую директорию</t>
-  </si>
-  <si>
-    <t>Перемещаем только конкретный файл</t>
-  </si>
-  <si>
-    <t>Инсталируем</t>
-  </si>
-  <si>
-    <t>Перемещаем саму api из прошлого stage</t>
-  </si>
-  <si>
-    <t>Выбираем такое же окружение как в прошлом stage</t>
-  </si>
-  <si>
-    <t>Запуск прилжоения когда запустился контейнер</t>
-  </si>
-  <si>
-    <t>Выбираем окружение golang и даем ему этому stage</t>
-  </si>
-  <si>
-    <t>Копируем все файлы</t>
-  </si>
-  <si>
-    <t>Билд прилжоения</t>
-  </si>
-  <si>
-    <t>Выбираем окружение scratch</t>
-  </si>
-  <si>
-    <t>Рабочая директория</t>
-  </si>
-  <si>
-    <t>Копируем сбилженое приложение из прошлого stage</t>
-  </si>
-  <si>
-    <t>Запуск приложения после загрузки контейнера</t>
-  </si>
-  <si>
-    <t>Документируем что приложение на 9000 порту будет работать</t>
-  </si>
-  <si>
-    <t>Типы сетевых драйверов docker</t>
-  </si>
-  <si>
-    <t>Bridge</t>
-  </si>
-  <si>
-    <t>Host</t>
-  </si>
-  <si>
-    <t>Overlay</t>
-  </si>
-  <si>
-    <t>Macvlan</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>Изолированная сеть между контейнерами</t>
-  </si>
-  <si>
-    <t>Удаление изоляции контейнера</t>
-  </si>
-  <si>
-    <t>Docker swarm</t>
-  </si>
-  <si>
-    <t>Уникальный mac адрес для контейнера</t>
-  </si>
-  <si>
-    <t>Без сети</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connect </t>
-  </si>
-  <si>
-    <t>Команды для управления сетями в контейнерах</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>disconnect</t>
-  </si>
-  <si>
-    <t>inscpect</t>
-  </si>
-  <si>
-    <t>ls</t>
-  </si>
-  <si>
-    <t>prune</t>
-  </si>
-  <si>
-    <t>rm</t>
-  </si>
-  <si>
-    <t>Подключить контейнер к сети</t>
-  </si>
-  <si>
-    <t>Создать сеть</t>
-  </si>
-  <si>
-    <t>Отключить контейнер от сети</t>
-  </si>
-  <si>
-    <t>Параметры сети</t>
+    <t>docker run --name=&lt;name&gt; --dns &lt;dns-server (например 8.8.8.8)&gt;  -d &lt;name images&gt;</t>
+  </si>
+  <si>
+    <t>Указать dns сервер при создании контейнера</t>
+  </si>
+  <si>
+    <t>docker rm -f &lt;name container/id&gt;</t>
+  </si>
+  <si>
+    <t>Принудительное удаление контейнера (останавливает его и удаляет)</t>
+  </si>
+  <si>
+    <t>Docker Volumes</t>
+  </si>
+  <si>
+    <t>docker volume ls</t>
+  </si>
+  <si>
+    <t>docker volume create &lt;name volume&gt;</t>
+  </si>
+  <si>
+    <t>docker volume inspect &lt;name volume&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run --name &lt;name containter&gt; -d -v &lt;name volume&gt;:&lt;/путь который мы хотим пробросить из docker conainer/&gt; &lt;name image&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Пример команды </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>docker run --name volume-1 -d -v test:/opt/app/data test:latest</t>
+    </r>
+  </si>
+  <si>
+    <t>docker rm volume</t>
+  </si>
+  <si>
+    <t>Можно подключить 2 контейнера к одному volume, в результате между 2-мя контейнерами будут шариться данные</t>
+  </si>
+  <si>
+    <t>Просмотр volume</t>
+  </si>
+  <si>
+    <t>Созданшие volume</t>
+  </si>
+  <si>
+    <t>Просмотр информации о volume</t>
+  </si>
+  <si>
+    <t>Удаление volume</t>
+  </si>
+  <si>
+    <t>docker volume prune</t>
+  </si>
+  <si>
+    <t>Добавление volume в dockerfile</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VOLUME ["&lt;путь который хотим прокинуть, например </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/opt/app/project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>&gt;"]</t>
+    </r>
+  </si>
+  <si>
+    <t>Создается volume без имени (вместо имени киллометровый хэш), создатся по умолчанию в /var/lib/docker/volume/ . Volume подключится только после запуска container</t>
+  </si>
+  <si>
+    <t>Можно вписать volume в dockerfile, а затем при запуске контейнера указать имя volume, в итоге создатся только 1 volume с именем.</t>
+  </si>
+  <si>
+    <t>Bind mounts</t>
+  </si>
+  <si>
+    <t>docker run --name &lt;containter name&gt; -d -v &lt;путь на хосте&gt;:&lt;пусть в контейнере&gt; -p 3000:3000 test:latest   - В данном случае мы пробрасываем конкретную папку, которую мы сами хотим</t>
+  </si>
+  <si>
+    <t>Испльзование tempfs</t>
+  </si>
+  <si>
+    <t>1) Не работает в swarm</t>
+  </si>
+  <si>
+    <t>2) Нельзя шарить между контейнерами</t>
+  </si>
+  <si>
+    <t>3) Удаляется после остановки контейнера</t>
+  </si>
+  <si>
+    <t>docker run --name &lt;containter name&gt; -d --tmpfs &lt;/путь в контейнере/&gt; -p 3000:3000 test:latest</t>
+  </si>
+  <si>
+    <t>Файлы хранятся в рамках работы контейнера</t>
+  </si>
+  <si>
+    <t>docker run --name &lt;containter name&gt; -d --mount type=tmpfs,destination= &lt;/путь в контейнере/&gt; -p 3000:3000 test:latest        - тоже самое что и запись выше</t>
+  </si>
+  <si>
+    <t>Копирование данных</t>
+  </si>
+  <si>
+    <t>docker cp &lt;путь что копировать /home/hello.txt&gt;  &lt;name container&gt;:&lt;/путь куда копируем в контейнере///&gt;  - Напрямую скопировать данные с хостовой машины в контейнер</t>
+  </si>
+  <si>
+    <t>docker cp &lt;name container&gt;:/&lt;пусть что хотим скопировать&gt; &lt;куда на хостовой хотим положить&gt;      - Копирование из контейнера на хостовую машину</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,14 +860,15 @@
     <font>
       <b/>
       <i/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -714,23 +877,77 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -982,98 +1199,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1353,792 +1608,999 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" customWidth="1"/>
-    <col min="2" max="2" width="144" customWidth="1"/>
+    <col min="1" max="1" width="73.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="144" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="50"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="B36" s="48"/>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B37" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B38" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B39" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B40" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B42" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B43" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B44" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B45" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B46" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B47" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="11"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B49" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B50" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B51" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B52" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
+    <row r="53" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="B53" s="46"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="16"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="18"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="19"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="8"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="1:2" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="B60" s="45"/>
+    </row>
+    <row r="61" spans="1:2" ht="42.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B61" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="11" t="s">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="11" t="s">
+    <row r="64" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="43"/>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="23"/>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="32" t="s">
+      <c r="B80" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="20"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B77" s="32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="88" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="22"/>
+    </row>
+    <row r="89" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="40"/>
+    </row>
+    <row r="90" spans="1:2" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="24" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" s="29"/>
-    </row>
-    <row r="87" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B87" s="5"/>
-    </row>
-    <row r="88" spans="1:2" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="42" t="s">
+      <c r="B91" s="25"/>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B89" s="44"/>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43" t="s">
+      <c r="B92" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B93" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91" s="37" t="s">
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="31" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B92" s="37" t="s">
+    <row r="97" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="33" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B94" s="39" t="s">
+      <c r="B98" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="34" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="33" t="s">
+      <c r="B99" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="34" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="35" t="s">
+      <c r="B101" s="29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="36" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="B97" s="37" t="s">
+      <c r="B102" s="29"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B103" s="29"/>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B104" s="31"/>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="36" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B98" s="37" t="s">
+      <c r="B105" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="36" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B99" s="37" t="s">
+      <c r="B107" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="36" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="B100" s="37"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="B101" s="37"/>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B102" s="39"/>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B108" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="38"/>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B115" s="51"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" s="52"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" s="51"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="B123" s="51"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="53" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B129" s="51"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B130" s="51"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="B132" s="51"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B133" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
+  <mergeCells count="16">
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A53:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DED58-CD90-426F-BEF6-8AEBA865398E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="259">
   <si>
     <t>Docker</t>
   </si>
@@ -812,11 +813,146 @@
   <si>
     <t>docker cp &lt;name container&gt;:/&lt;пусть что хотим скопировать&gt; &lt;куда на хостовой хотим положить&gt;      - Копирование из контейнера на хостовую машину</t>
   </si>
+  <si>
+    <t>Docker Compose</t>
+  </si>
+  <si>
+    <t>Позволяет описать все настройки docker contaiters в одном файле yml (какие image, volume, network ит д)</t>
+  </si>
+  <si>
+    <t>Пример самого простого docker-compose config</t>
+  </si>
+  <si>
+    <t>version: "3"</t>
+  </si>
+  <si>
+    <t>services:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  api:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ports:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 3000:3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    networks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    volumes:</t>
+  </si>
+  <si>
+    <t>networks:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    driver: bridge</t>
+  </si>
+  <si>
+    <t>volumes:</t>
+  </si>
+  <si>
+    <t>Версия docker-compose</t>
+  </si>
+  <si>
+    <t>Обращение к api docker</t>
+  </si>
+  <si>
+    <t>Выбираем image</t>
+  </si>
+  <si>
+    <t>Выбираем имя контейнера</t>
+  </si>
+  <si>
+    <t>Выбираем порты</t>
+  </si>
+  <si>
+    <t>Сеть которая будет использоваться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: &lt;name image&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: &lt;name container&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - &lt;name network&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - &lt;volume name или путь&gt;:&lt;/путь/&gt;</t>
+  </si>
+  <si>
+    <t>Указываем какой volume использовать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;network name&gt;:</t>
+  </si>
+  <si>
+    <t>Настройки для директивы networks</t>
+  </si>
+  <si>
+    <t>Указываем имя network</t>
+  </si>
+  <si>
+    <t>Какой драйвер будет использоваться</t>
+  </si>
+  <si>
+    <t>Настройки директивы volumes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;name volume&gt;:</t>
+  </si>
+  <si>
+    <t>В данном примере нет особых настроек, указываем только имя volume и :</t>
+  </si>
+  <si>
+    <t>docker-compose up -d</t>
+  </si>
+  <si>
+    <t>Запуск конфига (запуск нужно производить там где лежит файл)</t>
+  </si>
+  <si>
+    <t>docker-compose logs</t>
+  </si>
+  <si>
+    <t>Покажет логи docker-compose</t>
+  </si>
+  <si>
+    <t>docker-compose image</t>
+  </si>
+  <si>
+    <t>Показывает image которые используются</t>
+  </si>
+  <si>
+    <t>docker-compose top</t>
+  </si>
+  <si>
+    <t>Показать процессы docker-compose</t>
+  </si>
+  <si>
+    <t>docker-compose start</t>
+  </si>
+  <si>
+    <t>Запустить containers которые указаны в docker-compose</t>
+  </si>
+  <si>
+    <t>docker-compose stop</t>
+  </si>
+  <si>
+    <t>Остановить containers</t>
+  </si>
+  <si>
+    <t>docker-compose down</t>
+  </si>
+  <si>
+    <t>Останавливает и удаляет containers описаные в docker-compose</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -891,7 +1027,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,8 +1082,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1210,11 +1352,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1258,9 +1445,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1278,56 +1462,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1335,6 +1534,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1608,26 +1812,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="144" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:2" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="51"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1635,7 +1839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +1855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1683,7 +1887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1691,7 +1895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1699,7 +1903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1707,7 +1911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1715,7 +1919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1723,7 +1927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1731,7 +1935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1739,7 +1943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1755,7 +1959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1763,7 +1967,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1771,7 +1975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1779,7 +1983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1787,7 +1991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1795,7 +1999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1803,7 +2007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1811,7 +2015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1819,7 +2023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -1827,7 +2031,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -1835,12 +2039,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -1848,7 +2052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>184</v>
       </c>
@@ -1856,7 +2060,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -1864,7 +2068,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -1872,7 +2076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1880,7 +2084,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -1888,7 +2092,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>177</v>
       </c>
@@ -1896,13 +2100,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="47" t="s">
+    <row r="36" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="48"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="53"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
@@ -1910,7 +2114,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
@@ -1918,7 +2122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
@@ -1926,7 +2130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -1934,13 +2138,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -1948,7 +2152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
@@ -1956,7 +2160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -1964,7 +2168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>72</v>
       </c>
@@ -1972,7 +2176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>63</v>
       </c>
@@ -1980,7 +2184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -1988,13 +2192,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
@@ -2002,7 +2206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>71</v>
       </c>
@@ -2010,7 +2214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
@@ -2018,7 +2222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>73</v>
       </c>
@@ -2026,52 +2230,52 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="41" t="s">
+    <row r="53" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="46"/>
-    </row>
-    <row r="54" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="55"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="44" t="s">
+    <row r="60" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="45"/>
-    </row>
-    <row r="61" spans="1:2" ht="42.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="44"/>
+    </row>
+    <row r="61" spans="1:2" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>98</v>
       </c>
@@ -2079,7 +2283,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>99</v>
       </c>
@@ -2087,7 +2291,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>100</v>
       </c>
@@ -2095,13 +2299,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="42" t="s">
+    <row r="64" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="43"/>
-    </row>
-    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="46"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>104</v>
       </c>
@@ -2109,7 +2313,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>92</v>
       </c>
@@ -2117,7 +2321,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>105</v>
       </c>
@@ -2125,7 +2329,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>94</v>
       </c>
@@ -2133,7 +2337,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>93</v>
       </c>
@@ -2141,7 +2345,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>95</v>
       </c>
@@ -2149,10 +2353,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>106</v>
       </c>
@@ -2160,7 +2364,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>92</v>
       </c>
@@ -2168,7 +2372,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>107</v>
       </c>
@@ -2176,7 +2380,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>108</v>
       </c>
@@ -2184,7 +2388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>109</v>
       </c>
@@ -2192,7 +2396,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>110</v>
       </c>
@@ -2200,7 +2404,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>122</v>
       </c>
@@ -2208,7 +2412,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>113</v>
       </c>
@@ -2216,7 +2420,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>93</v>
       </c>
@@ -2224,7 +2428,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>114</v>
       </c>
@@ -2232,10 +2436,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>115</v>
       </c>
@@ -2243,7 +2447,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>113</v>
       </c>
@@ -2251,7 +2455,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>116</v>
       </c>
@@ -2259,7 +2463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>117</v>
       </c>
@@ -2267,7 +2471,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
         <v>118</v>
       </c>
@@ -2275,168 +2479,168 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="22" t="s">
+    <row r="88" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="22"/>
-    </row>
-    <row r="89" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="39" t="s">
+      <c r="B88" s="47"/>
+    </row>
+    <row r="89" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="40"/>
-    </row>
-    <row r="90" spans="1:2" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="23" t="s">
+      <c r="B89" s="49"/>
+    </row>
+    <row r="90" spans="1:2" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
         <v>181</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="24" t="s">
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="25"/>
-    </row>
-    <row r="92" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="26" t="s">
+      <c r="B91" s="24"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="28" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="28" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="28" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="30" t="s">
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="32" t="s">
+    <row r="97" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
+    <row r="98" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="26" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="34" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="34" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="34" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="34" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B102" s="29"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="34" t="s">
+      <c r="B102" s="28"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B103" s="29"/>
-    </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="35" t="s">
+      <c r="B103" s="28"/>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="B104" s="31"/>
-    </row>
-    <row r="105" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="36" t="s">
+      <c r="B104" s="30"/>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="35" t="s">
         <v>167</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="36" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="35" t="s">
         <v>170</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="36" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="36" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="35" t="s">
         <v>169</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="36" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="35" t="s">
         <v>171</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>182</v>
       </c>
@@ -2444,13 +2648,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="37" t="s">
+    <row r="111" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="38"/>
-    </row>
-    <row r="112" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="58"/>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>187</v>
       </c>
@@ -2458,7 +2662,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>188</v>
       </c>
@@ -2466,7 +2670,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>189</v>
       </c>
@@ -2474,13 +2678,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="51" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="B115" s="51"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="56"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>191</v>
       </c>
@@ -2488,23 +2692,23 @@
         <v>196</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="52" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="B118" s="52"/>
-    </row>
-    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="53" t="s">
+      <c r="B118" s="59"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>199</v>
       </c>
@@ -2512,95 +2716,293 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="51" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="B121" s="51"/>
-    </row>
-    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="53" t="s">
+      <c r="B121" s="56"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="51" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="B123" s="51"/>
-    </row>
-    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="53" t="s">
+      <c r="B123" s="56"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="51" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="B129" s="51"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="51" t="s">
+      <c r="B129" s="56"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="51"/>
-    </row>
-    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="53" t="s">
+      <c r="B130" s="56"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="51" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="B132" s="51"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="51" t="s">
+      <c r="B132" s="56"/>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="51"/>
+      <c r="B133" s="56"/>
+    </row>
+    <row r="134" spans="1:2" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B134" s="41"/>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="B135" s="42"/>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="38"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="38"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>258</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A129:B129"/>
     <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
     <mergeCell ref="A111:B111"/>
     <mergeCell ref="A115:B115"/>
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DED58-CD90-426F-BEF6-8AEBA865398E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="300">
   <si>
     <t>Docker</t>
   </si>
@@ -817,9 +816,6 @@
     <t>Docker Compose</t>
   </si>
   <si>
-    <t>Позволяет описать все настройки docker contaiters в одном файле yml (какие image, volume, network ит д)</t>
-  </si>
-  <si>
     <t>Пример самого простого docker-compose config</t>
   </si>
   <si>
@@ -947,12 +943,138 @@
   </si>
   <si>
     <t>Останавливает и удаляет containers описаные в docker-compose</t>
+  </si>
+  <si>
+    <t>docker-compose файл с несколькими сервисами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    build:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      context: .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      dockerfile: ./apps/api/dockerfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    restart: always</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    container_name: api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - ./.env:/opt/app/.env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - myNetwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    depends_on:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - rmq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rmq:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    image: rabbitmq:3-management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    enviroment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - RABBITMQ_DEFAULT_USER=admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - RABBITMQ_DEFAULT_PASS=admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  myNetwork:</t>
+  </si>
+  <si>
+    <t>Сборка приложения</t>
+  </si>
+  <si>
+    <t>Где находится само приложение</t>
+  </si>
+  <si>
+    <t>Указывается dockerfile</t>
+  </si>
+  <si>
+    <t>Поведение при отключении контейнера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">docker-compose --profile &lt;name profile&gt; up -d </t>
+  </si>
+  <si>
+    <t>Можно разбить docker-compose файл на различные профили и гибко управлять конфигурацией и сборкой, можно запускать без профилей так и с отдельными профилями (по умол. Docker-compose up -d запускает без профилей)</t>
+  </si>
+  <si>
+    <t>Запуск файла docker compose вместе с профилем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    profiles: ["test"]</t>
+  </si>
+  <si>
+    <t>Профайл, который позволяет разбить конфигурацию на разные части (в зависимости от колличества профайлов)</t>
+  </si>
+  <si>
+    <t>Позволяет описать все настройки docker contaiters в одном файле yml (какие image, volume, network ит д). Позволяет запустить и настроить многоконтейнерное приложение, если в кратце</t>
+  </si>
+  <si>
+    <t>Docker Compose запускает контейнеры в порядке зависимостей, используя опцию depends_on, чтобы указывать, когда запускается сервис. Для определения порядка запуска Compose применяет depends_on, links</t>
+  </si>
+  <si>
+    <t>docker-compose -f &lt;конфигурационный файл dockercompose.yml&gt; up -d</t>
+  </si>
+  <si>
+    <t>Запустить определенный файл конфигурации docker-compose</t>
+  </si>
+  <si>
+    <t>depends_on:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        condition: service_healthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;service_name&gt;:</t>
+  </si>
+  <si>
+    <t>Эта настройка позволяет прилинковать один сервис docker-compose к другому, он проверяет 'здоровье' написанного сервиса, если он недоступен то не запускать этот</t>
+  </si>
+  <si>
+    <t>healthcheck:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      test: ["CMD", "redis-cli", "ping"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      interval: 3s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      timeout: 5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      retries: 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      start_period: 1s</t>
+  </si>
+  <si>
+    <t>Проверка здоровья на примере сервиса редис</t>
+  </si>
+  <si>
+    <t>lsns</t>
+  </si>
+  <si>
+    <t>команда позволяет посмотреть Namespace в системе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1401,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1468,6 +1590,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1498,36 +1650,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1812,26 +1938,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="73.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="144" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="41"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1839,7 +1965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1847,7 +1973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1855,7 +1981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1863,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1871,7 +1997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +2005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1887,7 +2013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1895,7 +2021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1903,7 +2029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +2037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1919,7 +2045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1927,7 +2053,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1935,7 +2061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1943,7 +2069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -1951,7 +2077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1959,7 +2085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1967,7 +2093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1975,7 +2101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1983,7 +2109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1991,7 +2117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1999,7 +2125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -2007,7 +2133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2015,7 +2141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -2023,7 +2149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2031,7 +2157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -2039,12 +2165,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -2052,7 +2178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>184</v>
       </c>
@@ -2060,7 +2186,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2194,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -2076,7 +2202,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2084,7 +2210,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -2092,7 +2218,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>177</v>
       </c>
@@ -2100,13 +2226,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52" t="s">
+    <row r="36" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="53"/>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="43"/>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
@@ -2114,7 +2240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
@@ -2122,7 +2248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
@@ -2130,7 +2256,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -2138,13 +2264,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -2152,7 +2278,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
@@ -2160,7 +2286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -2168,7 +2294,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>72</v>
       </c>
@@ -2176,7 +2302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>63</v>
       </c>
@@ -2184,7 +2310,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -2192,13 +2318,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
@@ -2206,7 +2332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>71</v>
       </c>
@@ -2214,7 +2340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
@@ -2222,7 +2348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>73</v>
       </c>
@@ -2230,52 +2356,52 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="54" t="s">
+    <row r="53" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="55"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="45"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="43" t="s">
+    <row r="60" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="44"/>
-    </row>
-    <row r="61" spans="1:2" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="54"/>
+    </row>
+    <row r="61" spans="1:2" ht="42.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>98</v>
       </c>
@@ -2283,7 +2409,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>99</v>
       </c>
@@ -2291,7 +2417,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="s">
         <v>100</v>
       </c>
@@ -2299,13 +2425,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="45" t="s">
+    <row r="64" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="46"/>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="56"/>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>104</v>
       </c>
@@ -2313,7 +2439,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>92</v>
       </c>
@@ -2321,7 +2447,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>105</v>
       </c>
@@ -2329,7 +2455,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>94</v>
       </c>
@@ -2337,7 +2463,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>93</v>
       </c>
@@ -2345,7 +2471,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>95</v>
       </c>
@@ -2353,10 +2479,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>106</v>
       </c>
@@ -2364,7 +2490,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>92</v>
       </c>
@@ -2372,7 +2498,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>107</v>
       </c>
@@ -2380,7 +2506,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>108</v>
       </c>
@@ -2388,7 +2514,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>109</v>
       </c>
@@ -2396,7 +2522,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
         <v>110</v>
       </c>
@@ -2404,7 +2530,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>122</v>
       </c>
@@ -2412,7 +2538,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
         <v>113</v>
       </c>
@@ -2420,7 +2546,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>93</v>
       </c>
@@ -2428,7 +2554,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
         <v>114</v>
       </c>
@@ -2436,10 +2562,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>115</v>
       </c>
@@ -2447,7 +2573,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>113</v>
       </c>
@@ -2455,7 +2581,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
         <v>116</v>
       </c>
@@ -2463,7 +2589,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
         <v>117</v>
       </c>
@@ -2471,7 +2597,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="21" t="s">
         <v>118</v>
       </c>
@@ -2479,19 +2605,19 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="47" t="s">
+    <row r="88" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="47"/>
-    </row>
-    <row r="89" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="48" t="s">
+      <c r="B88" s="57"/>
+    </row>
+    <row r="89" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="49"/>
-    </row>
-    <row r="90" spans="1:2" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="59"/>
+    </row>
+    <row r="90" spans="1:2" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
         <v>181</v>
       </c>
@@ -2499,13 +2625,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
         <v>146</v>
       </c>
       <c r="B91" s="24"/>
     </row>
-    <row r="92" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
         <v>147</v>
       </c>
@@ -2513,7 +2639,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="27" t="s">
         <v>148</v>
       </c>
@@ -2521,7 +2647,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="27" t="s">
         <v>149</v>
       </c>
@@ -2529,7 +2655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="27" t="s">
         <v>150</v>
       </c>
@@ -2537,7 +2663,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="29" t="s">
         <v>151</v>
       </c>
@@ -2545,12 +2671,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A98" s="32" t="s">
         <v>155</v>
       </c>
@@ -2558,7 +2684,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
         <v>157</v>
       </c>
@@ -2566,7 +2692,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="33" t="s">
         <v>158</v>
       </c>
@@ -2574,7 +2700,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
         <v>159</v>
       </c>
@@ -2582,25 +2708,25 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
         <v>160</v>
       </c>
       <c r="B102" s="28"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
         <v>161</v>
       </c>
       <c r="B103" s="28"/>
     </row>
-    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="34" t="s">
         <v>162</v>
       </c>
       <c r="B104" s="30"/>
     </row>
-    <row r="105" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A105" s="35" t="s">
         <v>167</v>
       </c>
@@ -2608,7 +2734,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
         <v>170</v>
       </c>
@@ -2616,7 +2742,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="35" t="s">
         <v>168</v>
       </c>
@@ -2624,7 +2750,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
         <v>169</v>
       </c>
@@ -2632,7 +2758,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="35" t="s">
         <v>171</v>
       </c>
@@ -2640,7 +2766,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>182</v>
       </c>
@@ -2648,13 +2774,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="57" t="s">
+    <row r="111" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="58"/>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="48"/>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>187</v>
       </c>
@@ -2662,7 +2788,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>188</v>
       </c>
@@ -2670,7 +2796,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>189</v>
       </c>
@@ -2678,13 +2804,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="56" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="B115" s="56"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="46"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>191</v>
       </c>
@@ -2692,23 +2818,23 @@
         <v>196</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="59" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="B118" s="59"/>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B118" s="49"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>199</v>
       </c>
@@ -2716,275 +2842,523 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="56" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="B121" s="56"/>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B121" s="46"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="56" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="B123" s="56"/>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B123" s="46"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="56" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="B129" s="56"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="56" t="s">
+      <c r="B129" s="46"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="56"/>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B130" s="46"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="56" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="B132" s="56"/>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="56" t="s">
+      <c r="B132" s="46"/>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="56"/>
-    </row>
-    <row r="134" spans="1:2" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="40" t="s">
+      <c r="B133" s="46"/>
+    </row>
+    <row r="134" spans="1:2" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B134" s="41"/>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="42" t="s">
+      <c r="B134" s="51"/>
+    </row>
+    <row r="135" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B135" s="52"/>
+    </row>
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B135" s="42"/>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+    </row>
+    <row r="137" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="37" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="37" t="s">
+      <c r="B137" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="B137" s="2" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="38" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="38"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="38"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="60" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="62" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="38" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="62" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="38" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="62" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="62" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="62" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="62"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="62" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="38"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="38" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="38"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>258</v>
+    </row>
+    <row r="191" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="B191" s="49"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="199" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="62" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="62" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="62" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="62" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A53:B53"/>
@@ -2995,14 +3369,6 @@
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Docker" sheetId="1" r:id="rId1"/>
+    <sheet name="Python" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="355">
   <si>
     <t>Docker</t>
   </si>
@@ -1070,12 +1071,201 @@
   <si>
     <t>команда позволяет посмотреть Namespace в системе</t>
   </si>
+  <si>
+    <t>Типы данных</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Числа</t>
+  </si>
+  <si>
+    <t>целое число</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>вещественное число (с плавающей точкой/дробное)</t>
+  </si>
+  <si>
+    <t>Математические операции</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>возведение числа в степен (прим: 2 ** 2)</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Целочисленное деление (оставляет только целую часть, 13 // 2 = 6,   19 // 11 =1)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Остаток от деления ( 21 % 4)</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>Функция округления print(round(x, 2)) - Будут опказываться только 2 знака после запятой</t>
+  </si>
+  <si>
+    <t>Строки</t>
+  </si>
+  <si>
+    <t>text = "Привет"</t>
+  </si>
+  <si>
+    <t>Стройки обязательно указываются в кавычках (либо "" либо '')</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Функция подсчета символов в строке (прим: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print(len(&lt;имя переменной&gt;))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  )</t>
+    </r>
+  </si>
+  <si>
+    <t>print(n[0])</t>
+  </si>
+  <si>
+    <t>[] - позволяет вывести определенный символ из строки, в данном примере выводится первый символ</t>
+  </si>
+  <si>
+    <t>print(n[-1])</t>
+  </si>
+  <si>
+    <t>Если указывать отрицательно значение, то будет осуществляться поиск с конца строки</t>
+  </si>
+  <si>
+    <t>print(&lt;перем.&gt;,&lt;перем.&gt; , end=".")</t>
+  </si>
+  <si>
+    <t>print(&lt;перем.&gt;,&lt;перем.&gt; , sep=",")</t>
+  </si>
+  <si>
+    <t>Склеить переменные в один вывод и чтобы между ними разделение было через запятые</t>
+  </si>
+  <si>
+    <t>Склеить переменные в один вывод и чтобы на конце была точка</t>
+  </si>
+  <si>
+    <t>I = a + "," + b + "," + c + "."</t>
+  </si>
+  <si>
+    <t>Склеить переменные в отдельный вывод через стороннюю переменную</t>
+  </si>
+  <si>
+    <t>import sys</t>
+  </si>
+  <si>
+    <t>a, b, c = sys.argv[1], sys.argv[2], sys.argv[3]</t>
+  </si>
+  <si>
+    <t>Подключает библиотеку</t>
+  </si>
+  <si>
+    <t>sys.argv - позволяет вводить данные вручную</t>
+  </si>
+  <si>
+    <t>a = sys.argv[1]</t>
+  </si>
+  <si>
+    <t>print(a)</t>
+  </si>
+  <si>
+    <t>print("-" * len(a))</t>
+  </si>
+  <si>
+    <t>После вывода введеного значения, снизу добавляет - такой же длины что и введеное значение</t>
+  </si>
+  <si>
+    <t>lays = "| " + a + " |"</t>
+  </si>
+  <si>
+    <t>print("+" + "-" * (len(lays)-2) + "+")</t>
+  </si>
+  <si>
+    <t>print(lays)</t>
+  </si>
+  <si>
+    <t>При вводе любого значения он будет обведен в квадрат из черточек и по углам +</t>
+  </si>
+  <si>
+    <t>print("*" * (15-len(a)) + a)</t>
+  </si>
+  <si>
+    <t>При вводе любого значения, в общем стройка будет состоять из 15 символов и с первого по введенное значение будет .</t>
+  </si>
+  <si>
+    <t>Срезы</t>
+  </si>
+  <si>
+    <t>print(i[0:4])</t>
+  </si>
+  <si>
+    <t>Вывод значения с первого по 4</t>
+  </si>
+  <si>
+    <t>print(i[-4:len(i)])</t>
+  </si>
+  <si>
+    <t>Вывод значения четвертого с конца до последнего</t>
+  </si>
+  <si>
+    <t>print(i[-4:]</t>
+  </si>
+  <si>
+    <t>print(i[:4]</t>
+  </si>
+  <si>
+    <t>print((a[:10]) + 3 * ".")</t>
+  </si>
+  <si>
+    <t>Обрезает значение до первых 10-ти и вконце добавляет 3 точки</t>
+  </si>
+  <si>
+    <t>print(a[-3:])</t>
+  </si>
+  <si>
+    <t>Выводит последние три значения</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1148,6 +1338,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1211,7 +1410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1519,11 +1718,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1590,6 +1906,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1650,10 +1973,21 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1941,7 +2275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -1952,10 +2286,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2227,10 +2561,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="48"/>
     </row>
     <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
@@ -2357,10 +2691,10 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="45"/>
+      <c r="B53" s="50"/>
     </row>
     <row r="54" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
@@ -2396,10 +2730,10 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="54"/>
+      <c r="B60" s="59"/>
     </row>
     <row r="61" spans="1:2" ht="42.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
@@ -2426,10 +2760,10 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="56"/>
+      <c r="B64" s="61"/>
     </row>
     <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
@@ -2606,16 +2940,16 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="57"/>
+      <c r="B88" s="62"/>
     </row>
     <row r="89" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="58" t="s">
+      <c r="A89" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="59"/>
+      <c r="B89" s="64"/>
     </row>
     <row r="90" spans="1:2" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
@@ -2775,10 +3109,10 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="47" t="s">
+      <c r="A111" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="48"/>
+      <c r="B111" s="53"/>
     </row>
     <row r="112" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
@@ -2805,10 +3139,10 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="46" t="s">
+      <c r="A115" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="B115" s="46"/>
+      <c r="B115" s="51"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -2824,10 +3158,10 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="49" t="s">
+      <c r="A118" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="B118" s="49"/>
+      <c r="B118" s="54"/>
     </row>
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="36" t="s">
@@ -2843,10 +3177,10 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="46" t="s">
+      <c r="A121" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="B121" s="46"/>
+      <c r="B121" s="51"/>
     </row>
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="36" t="s">
@@ -2854,10 +3188,10 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="46" t="s">
+      <c r="A123" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B123" s="46"/>
+      <c r="B123" s="51"/>
     </row>
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="36" t="s">
@@ -2885,16 +3219,16 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="46" t="s">
+      <c r="A129" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="B129" s="46"/>
+      <c r="B129" s="51"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="46" t="s">
+      <c r="A130" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="46"/>
+      <c r="B130" s="51"/>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="36" t="s">
@@ -2902,28 +3236,28 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="46" t="s">
+      <c r="A132" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="B132" s="46"/>
+      <c r="B132" s="51"/>
     </row>
     <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="46" t="s">
+      <c r="A133" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="46"/>
+      <c r="B133" s="51"/>
     </row>
     <row r="134" spans="1:2" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="50" t="s">
+      <c r="A134" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="B134" s="51"/>
+      <c r="B134" s="56"/>
     </row>
     <row r="135" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="52" t="s">
+      <c r="A135" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="B135" s="52"/>
+      <c r="B135" s="57"/>
     </row>
     <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
@@ -3110,27 +3444,27 @@
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="60" t="s">
+      <c r="A163" s="40" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="61" t="s">
+      <c r="A164" s="41" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="62" t="s">
+      <c r="A165" s="42" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="62" t="s">
+      <c r="A166" s="42" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="62" t="s">
+      <c r="A167" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -3138,7 +3472,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="62" t="s">
+      <c r="A168" s="42" t="s">
         <v>260</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -3146,7 +3480,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="62" t="s">
+      <c r="A169" s="42" t="s">
         <v>261</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -3154,7 +3488,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="62" t="s">
+      <c r="A170" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -3162,32 +3496,32 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="62" t="s">
+      <c r="A171" s="42" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="62" t="s">
+      <c r="A172" s="42" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="62" t="s">
+      <c r="A173" s="42" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="62" t="s">
+      <c r="A174" s="42" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="62" t="s">
+      <c r="A175" s="42" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="62" t="s">
+      <c r="A176" s="42" t="s">
         <v>281</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -3195,7 +3529,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="62" t="s">
+      <c r="A177" s="42" t="s">
         <v>266</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -3203,73 +3537,73 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="62" t="s">
+      <c r="A178" s="42" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="62" t="s">
+      <c r="A179" s="42" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="62" t="s">
+      <c r="A180" s="42" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="62" t="s">
+      <c r="A181" s="42" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="62" t="s">
+      <c r="A182" s="42" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="62" t="s">
+      <c r="A183" s="42" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="62" t="s">
+      <c r="A184" s="42" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="62" t="s">
+      <c r="A185" s="42" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="62" t="s">
+      <c r="A186" s="42" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="62"/>
+      <c r="A187" s="42"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="62" t="s">
+      <c r="A188" s="42" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="62" t="s">
+      <c r="A189" s="42" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="63" t="s">
+      <c r="A190" s="43" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="49" t="s">
+      <c r="A191" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="B191" s="49"/>
+      <c r="B191" s="54"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
@@ -3288,7 +3622,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="61" t="s">
+      <c r="A195" s="41" t="s">
         <v>287</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -3296,18 +3630,18 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="62" t="s">
+      <c r="A196" s="42" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="63" t="s">
+      <c r="A197" s="43" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="199" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="61" t="s">
+      <c r="A199" s="41" t="s">
         <v>291</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -3315,27 +3649,27 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="62" t="s">
+      <c r="A200" s="42" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="62" t="s">
+      <c r="A201" s="42" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="62" t="s">
+      <c r="A202" s="42" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="62" t="s">
+      <c r="A203" s="42" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="63" t="s">
+      <c r="A204" s="43" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3373,4 +3707,327 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="106.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="69"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" s="69"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="67" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="72"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="76"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="71"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="76"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="73" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="71"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" s="77"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="65"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B26" s="65"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>320</v>
+      </c>
+      <c r="B34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>322</v>
+      </c>
+      <c r="B35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>328</v>
+      </c>
+      <c r="B38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B39" s="65"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>349</v>
+      </c>
+      <c r="B42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>350</v>
+      </c>
+      <c r="B43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/commands.xlsx
+++ b/commands.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0673B088-8B4B-4BD0-82D6-6A263EA15B6E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Docker" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="406">
   <si>
     <t>Docker</t>
   </si>
@@ -1260,12 +1261,165 @@
   <si>
     <t>Выводит последние три значения</t>
   </si>
+  <si>
+    <t>print(a[0:5] + "?????" + a[10:12])</t>
+  </si>
+  <si>
+    <t>Программа скрытия номера, видны только первые 4 символа и последние 2</t>
+  </si>
+  <si>
+    <t>print("+7" + " " + "(" + a[1:4] + ")" + " " + a[4:7] + "-" + a[7:9] + "-" + a[9:12])</t>
+  </si>
+  <si>
+    <t>Переводит номер в удобный вид</t>
+  </si>
+  <si>
+    <t>print(i[&lt;начало&gt;:&lt;конец&gt;:&lt;шаг&gt;] (напр: print(i[::5]) )</t>
+  </si>
+  <si>
+    <t>конструкция с шагом 5 будет возвращать каждый 5-й символ</t>
+  </si>
+  <si>
+    <t>Изменение строк</t>
+  </si>
+  <si>
+    <t>Строки это неизменяймый тип данных в python, но существуют 2 решения для обхода этой блокриовки: создать вторую строку и туда посместить изменения либо перезаписать существующую (удалить и создать новую)</t>
+  </si>
+  <si>
+    <t>language = "Python"</t>
+  </si>
+  <si>
+    <t>language_lower = "p" + language[1:]</t>
+  </si>
+  <si>
+    <t>print(language_lower)</t>
+  </si>
+  <si>
+    <t>Создание новой строки и замена первой буквы P на p</t>
+  </si>
+  <si>
+    <t>language = "p" + language[1:]</t>
+  </si>
+  <si>
+    <t>print(language)</t>
+  </si>
+  <si>
+    <t>Перезаписывание существующей строки и замена P на p</t>
+  </si>
+  <si>
+    <t>language = language.lower()</t>
+  </si>
+  <si>
+    <t>print(a.upper())</t>
+  </si>
+  <si>
+    <t>Использование метода .lower(), все символы в строке указываются с маленькой буквы</t>
+  </si>
+  <si>
+    <t>Использование метода upper(), все символы в строке указываются с большой</t>
+  </si>
+  <si>
+    <t>Методы строк</t>
+  </si>
+  <si>
+    <t>Методы это операции которые можно применить к строке. Популярные методы: lower() - все символы в строке пишутся с маленькой буквы</t>
+  </si>
+  <si>
+    <t>upper() - все символы в строке пишутся с большой буквы</t>
+  </si>
+  <si>
+    <t>title() - каждое слово в строке начинается с заглавной буквы</t>
+  </si>
+  <si>
+    <t>strip() - удаляет лишние пробелы</t>
+  </si>
+  <si>
+    <t>capitalize() - Первый символ будет заглавным, а остальные слова приводит к нижнему регистру</t>
+  </si>
+  <si>
+    <t>Можно записывать методы подряд: a = a.strip().lower()…</t>
+  </si>
+  <si>
+    <t>fist_name = sys.argv[1]</t>
+  </si>
+  <si>
+    <t>secondary_name = sys.argv[2]</t>
+  </si>
+  <si>
+    <t>trith_name = sys.argv[3]</t>
+  </si>
+  <si>
+    <t>name = fist_name.capitalize() + " " + secondary_name.capitalize() + " " + trith_name.capitalize()</t>
+  </si>
+  <si>
+    <t>print(name)</t>
+  </si>
+  <si>
+    <t>При вводе ФИО выводит каждое слово с заглавной буквы</t>
+  </si>
+  <si>
+    <t>swapcase() - регистр меняется местами (то что было с маленькой стало с большой буквы и наоборот)</t>
+  </si>
+  <si>
+    <t>center() - устанавливает значение по центру, принимает 2 аргумента, width - длина строки, fillchar - символ заполнения (если не указывать по умолчанию устанавливает пробел)</t>
+  </si>
+  <si>
+    <t>a = a.upper().center(20)</t>
+  </si>
+  <si>
+    <t>Устанавиливает по центру введенное значение и указывает размер строки в 20 символов</t>
+  </si>
+  <si>
+    <t>count() - принимает символ или строку в качетсве аргумента и возвращает количество раз, когда входное в строку появлялось в строке</t>
+  </si>
+  <si>
+    <t>string = a.count(b)</t>
+  </si>
+  <si>
+    <t>b = sys.argv[2]</t>
+  </si>
+  <si>
+    <t>print(string)</t>
+  </si>
+  <si>
+    <t>Указывает сколько раз введенное значение b было указано в значении a</t>
+  </si>
+  <si>
+    <t>rjust() - Позиционирует вправо указанную строку, дополняя её слева до указанной длины указанным символом</t>
+  </si>
+  <si>
+    <t>digit1 = sys.argv[1]</t>
+  </si>
+  <si>
+    <t>digit2 = sys.argv[2]</t>
+  </si>
+  <si>
+    <t>digit3 = sys.argv[3]</t>
+  </si>
+  <si>
+    <t>print(digit1.rjust(15, '.'))</t>
+  </si>
+  <si>
+    <t>print(digit2.rjust(15, '.'))</t>
+  </si>
+  <si>
+    <t>print(digit3.rjust(15, '.'))</t>
+  </si>
+  <si>
+    <t>Указывается длина в 15 символов, справа указываются введенные значения, остальное заполняется точками</t>
+  </si>
+  <si>
+    <t>zfill() - Дополняет указанную строку нулями слева до указанной минимальной длины.</t>
+  </si>
+  <si>
+    <t>Методы строк: замена</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,6 +1501,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1839,7 +2002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1913,33 +2076,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1973,21 +2121,43 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2272,26 +2442,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="144" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:2" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="70"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2299,7 +2469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2307,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2315,7 +2485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2323,7 +2493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2331,7 +2501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2347,7 +2517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2355,7 +2525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2363,7 +2533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2371,7 +2541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2379,7 +2549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2387,7 +2557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2395,7 +2565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2403,7 +2573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2411,7 +2581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2419,7 +2589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2427,7 +2597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2435,7 +2605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2443,7 +2613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -2451,7 +2621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -2459,7 +2629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -2467,7 +2637,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2475,7 +2645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -2483,7 +2653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2491,7 +2661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -2499,12 +2669,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -2512,7 +2682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>184</v>
       </c>
@@ -2520,7 +2690,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -2528,7 +2698,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -2536,7 +2706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2544,7 +2714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -2552,7 +2722,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>177</v>
       </c>
@@ -2560,13 +2730,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="47" t="s">
+    <row r="36" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="48"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="72"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
@@ -2574,7 +2744,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
@@ -2582,7 +2752,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
@@ -2590,7 +2760,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -2598,13 +2768,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -2612,7 +2782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
@@ -2620,7 +2790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -2628,7 +2798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>72</v>
       </c>
@@ -2636,7 +2806,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>63</v>
       </c>
@@ -2644,7 +2814,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -2652,13 +2822,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
@@ -2666,7 +2836,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>71</v>
       </c>
@@ -2674,7 +2844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
@@ -2682,7 +2852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>73</v>
       </c>
@@ -2690,52 +2860,52 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="49" t="s">
+    <row r="53" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="50"/>
-    </row>
-    <row r="54" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="74"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="58" t="s">
+    <row r="60" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="59"/>
-    </row>
-    <row r="61" spans="1:2" ht="42.6" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="62"/>
+    </row>
+    <row r="61" spans="1:2" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>98</v>
       </c>
@@ -2743,7 +2913,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>99</v>
       </c>
@@ -2751,7 +2921,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>100</v>
       </c>
@@ -2759,13 +2929,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="60" t="s">
+    <row r="64" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="61"/>
-    </row>
-    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="64"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>104</v>
       </c>
@@ -2773,7 +2943,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>92</v>
       </c>
@@ -2781,7 +2951,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>105</v>
       </c>
@@ -2789,7 +2959,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>94</v>
       </c>
@@ -2797,7 +2967,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>93</v>
       </c>
@@ -2805,7 +2975,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>95</v>
       </c>
@@ -2813,10 +2983,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>106</v>
       </c>
@@ -2824,7 +2994,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>92</v>
       </c>
@@ -2832,7 +3002,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>107</v>
       </c>
@@ -2840,7 +3010,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>108</v>
       </c>
@@ -2848,7 +3018,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>109</v>
       </c>
@@ -2856,7 +3026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>110</v>
       </c>
@@ -2864,7 +3034,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>122</v>
       </c>
@@ -2872,7 +3042,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>113</v>
       </c>
@@ -2880,7 +3050,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>93</v>
       </c>
@@ -2888,7 +3058,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>114</v>
       </c>
@@ -2896,10 +3066,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>115</v>
       </c>
@@ -2907,7 +3077,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>113</v>
       </c>
@@ -2915,7 +3085,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>116</v>
       </c>
@@ -2923,7 +3093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>117</v>
       </c>
@@ -2931,7 +3101,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
         <v>118</v>
       </c>
@@ -2939,19 +3109,19 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="62" t="s">
+    <row r="88" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="62"/>
-    </row>
-    <row r="89" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="63" t="s">
+      <c r="B88" s="65"/>
+    </row>
+    <row r="89" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="64"/>
-    </row>
-    <row r="90" spans="1:2" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="67"/>
+    </row>
+    <row r="90" spans="1:2" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>181</v>
       </c>
@@ -2959,13 +3129,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="s">
         <v>146</v>
       </c>
       <c r="B91" s="24"/>
     </row>
-    <row r="92" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
         <v>147</v>
       </c>
@@ -2973,7 +3143,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="27" t="s">
         <v>148</v>
       </c>
@@ -2981,7 +3151,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="27" t="s">
         <v>149</v>
       </c>
@@ -2989,7 +3159,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>150</v>
       </c>
@@ -2997,7 +3167,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="29" t="s">
         <v>151</v>
       </c>
@@ -3005,12 +3175,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>155</v>
       </c>
@@ -3018,7 +3188,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>157</v>
       </c>
@@ -3026,7 +3196,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
         <v>158</v>
       </c>
@@ -3034,7 +3204,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
         <v>159</v>
       </c>
@@ -3042,25 +3212,25 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
         <v>160</v>
       </c>
       <c r="B102" s="28"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
         <v>161</v>
       </c>
       <c r="B103" s="28"/>
     </row>
-    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="34" t="s">
         <v>162</v>
       </c>
       <c r="B104" s="30"/>
     </row>
-    <row r="105" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="35" t="s">
         <v>167</v>
       </c>
@@ -3068,7 +3238,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="35" t="s">
         <v>170</v>
       </c>
@@ -3076,7 +3246,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="35" t="s">
         <v>168</v>
       </c>
@@ -3084,7 +3254,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="35" t="s">
         <v>169</v>
       </c>
@@ -3092,7 +3262,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="35" t="s">
         <v>171</v>
       </c>
@@ -3100,7 +3270,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>182</v>
       </c>
@@ -3108,13 +3278,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="52" t="s">
+    <row r="111" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="53"/>
-    </row>
-    <row r="112" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="76"/>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>187</v>
       </c>
@@ -3122,7 +3292,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>188</v>
       </c>
@@ -3130,7 +3300,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>189</v>
       </c>
@@ -3138,13 +3308,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="51" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="B115" s="51"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="68"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>191</v>
       </c>
@@ -3152,23 +3322,23 @@
         <v>196</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="54" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B118" s="54"/>
-    </row>
-    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B118" s="57"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>199</v>
       </c>
@@ -3176,95 +3346,95 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="51" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="B121" s="51"/>
-    </row>
-    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B121" s="68"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="51" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="B123" s="51"/>
-    </row>
-    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B123" s="68"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="51" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="B129" s="51"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="51" t="s">
+      <c r="B129" s="68"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="51"/>
-    </row>
-    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B130" s="68"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="51" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="B132" s="51"/>
-    </row>
-    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="51" t="s">
+      <c r="B132" s="68"/>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="51"/>
-    </row>
-    <row r="134" spans="1:2" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="55" t="s">
+      <c r="B133" s="68"/>
+    </row>
+    <row r="134" spans="1:2" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="B134" s="56"/>
-    </row>
-    <row r="135" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="57" t="s">
+      <c r="B134" s="59"/>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="B135" s="57"/>
-    </row>
-    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="60"/>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A137" s="37" t="s">
         <v>216</v>
       </c>
@@ -3272,12 +3442,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="38" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="38" t="s">
         <v>218</v>
       </c>
@@ -3285,7 +3455,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="38" t="s">
         <v>232</v>
       </c>
@@ -3293,7 +3463,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="38" t="s">
         <v>233</v>
       </c>
@@ -3301,7 +3471,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="38" t="s">
         <v>219</v>
       </c>
@@ -3309,12 +3479,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="38" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="38" t="s">
         <v>221</v>
       </c>
@@ -3322,17 +3492,17 @@
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="38" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="38" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="38" t="s">
         <v>235</v>
       </c>
@@ -3340,10 +3510,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="38"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="38" t="s">
         <v>223</v>
       </c>
@@ -3351,7 +3521,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="38" t="s">
         <v>237</v>
       </c>
@@ -3359,7 +3529,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="38" t="s">
         <v>224</v>
       </c>
@@ -3367,10 +3537,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="38"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="38" t="s">
         <v>225</v>
       </c>
@@ -3378,7 +3548,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="39" t="s">
         <v>242</v>
       </c>
@@ -3386,8 +3556,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>244</v>
       </c>
@@ -3395,7 +3565,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>246</v>
       </c>
@@ -3403,7 +3573,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>248</v>
       </c>
@@ -3411,7 +3581,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>250</v>
       </c>
@@ -3419,7 +3589,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>252</v>
       </c>
@@ -3427,7 +3597,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>254</v>
       </c>
@@ -3435,7 +3605,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>256</v>
       </c>
@@ -3443,27 +3613,27 @@
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="40" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A164" s="41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="42" t="s">
         <v>259</v>
       </c>
@@ -3471,7 +3641,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="42" t="s">
         <v>260</v>
       </c>
@@ -3479,7 +3649,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="42" t="s">
         <v>261</v>
       </c>
@@ -3487,7 +3657,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="42" t="s">
         <v>262</v>
       </c>
@@ -3495,32 +3665,32 @@
         <v>277</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="42" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="42" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="42" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="42" t="s">
         <v>281</v>
       </c>
@@ -3528,7 +3698,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="42" t="s">
         <v>266</v>
       </c>
@@ -3536,76 +3706,76 @@
         <v>284</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="42" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="42" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="42" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="42" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="42" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="42" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="42" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="42"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="42" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="43" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="54" t="s">
+    <row r="191" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="B191" s="54"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="57"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>278</v>
       </c>
@@ -3613,7 +3783,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>285</v>
       </c>
@@ -3621,7 +3791,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A195" s="41" t="s">
         <v>287</v>
       </c>
@@ -3629,18 +3799,18 @@
         <v>290</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="42" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="43" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="199" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A199" s="41" t="s">
         <v>291</v>
       </c>
@@ -3648,33 +3818,33 @@
         <v>297</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="42" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="42" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="42" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="42" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="43" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>298</v>
       </c>
@@ -3684,15 +3854,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A53:B53"/>
@@ -3703,6 +3864,15 @@
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3710,322 +3880,659 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="106.6640625" customWidth="1"/>
+    <col min="1" max="1" width="65.140625" customWidth="1"/>
+    <col min="2" max="2" width="106.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="49" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="69"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="48"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
         <v>336</v>
       </c>
       <c r="B6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="B7" s="69"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="B7" s="48"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>339</v>
       </c>
       <c r="B10" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="B13" s="72"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
+      <c r="B13" s="51"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>334</v>
       </c>
       <c r="B14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="B15" s="76"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="B15" s="55"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="B16" s="71"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="s">
+      <c r="B16" s="50"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="50" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="76"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="B18" s="55"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="B19" s="71"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="74" t="s">
+      <c r="B19" s="50"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="50" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="75" t="s">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="B21" s="77"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="B21" s="56"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="50"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="B24" s="56"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="50"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="B27" s="56"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="79" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="65"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="B28" s="79"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>301</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B30" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>304</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B31" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="B26" s="65"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B32" s="79"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>307</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B33" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>309</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B34" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>311</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B35" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>313</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="44" t="s">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="79" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B37" s="79"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>316</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B38" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>318</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>320</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B40" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>322</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B41" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>324</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B42" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>325</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B43" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>328</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B44" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="65" t="s">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="B39" s="65"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B45" s="79"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>345</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>347</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B47" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>349</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B48" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>350</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B49" t="s">
         <v>346</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>359</v>
+      </c>
+      <c r="B50" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="79" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="79"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="B53" s="48"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="B55" s="56"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B56" s="48"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="56"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B59" s="48"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" s="56"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="B64" s="55"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="B65" s="78"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="80" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="55"/>
+      <c r="B75" s="55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="53" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="B78" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="B82" s="55"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" s="56"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="53" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="B89" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="53" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="B91" s="56"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="53" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="B95" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="53" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="B98" s="56"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="B99" s="77"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A39:B39"/>
+  <mergeCells count="7">
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0673B088-8B4B-4BD0-82D6-6A263EA15B6E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Docker" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="428">
   <si>
     <t>Docker</t>
   </si>
@@ -1414,11 +1413,77 @@
   <si>
     <t>Методы строк: замена</t>
   </si>
+  <si>
+    <t>animal(&lt;исходный кусок/вся строка&gt;, &lt;то на что нужно заменить&gt;)</t>
+  </si>
+  <si>
+    <t>animal = "жыраф"</t>
+  </si>
+  <si>
+    <t>animal = animal.replace("жы", "жи")</t>
+  </si>
+  <si>
+    <t>print(animal)</t>
+  </si>
+  <si>
+    <t>Заменяет жыраф на жираф</t>
+  </si>
+  <si>
+    <t>animal = "жыраф шырокий"</t>
+  </si>
+  <si>
+    <t>animal = animal.replace("жы", "жи").replace("шы", "ши")</t>
+  </si>
+  <si>
+    <t>Замена двух значений</t>
+  </si>
+  <si>
+    <t>a = a.replace("I am", "I'm").replace("You are", "You're").replace("He is", "He's").replace("She is", "She's").replace("We are", "We're").replace("They are", "They're").replace("It is", "It's")</t>
+  </si>
+  <si>
+    <t>a = a.replace("0", "a").replace("1", " ")\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .replace("2", "b").replace("3", "e")\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .replace("4", "l").replace("5", "mu")\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .replace("6", "n").replace("7", "o")\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    .replace("8", "lee").replace("9", "f")</t>
+  </si>
+  <si>
+    <t>print(a, end=".")</t>
+  </si>
+  <si>
+    <t>Шифрование номера</t>
+  </si>
+  <si>
+    <t>a = str(a)</t>
+  </si>
+  <si>
+    <t>a = a.replace("-", " ", 2)</t>
+  </si>
+  <si>
+    <t>Заменяет только первые две - на пробелы</t>
+  </si>
+  <si>
+    <t>a = a.replace("-"," (" ,1).replace("-", ") ", 1)</t>
+  </si>
+  <si>
+    <t>Приводит номер +7-111-222-33-44 к виду +7 (111) 222-33-44</t>
+  </si>
+  <si>
+    <t>Методы строк: поиск</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2002,7 +2067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2088,6 +2153,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2121,43 +2214,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2442,26 +2504,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="73.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="144" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:2" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="59"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2469,7 +2531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2477,7 +2539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2485,7 +2547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2493,7 +2555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2501,7 +2563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2509,7 +2571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2517,7 +2579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2525,7 +2587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2533,7 +2595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2541,7 +2603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2549,7 +2611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2557,7 +2619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2565,7 +2627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2573,7 +2635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2581,7 +2643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2589,7 +2651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2597,7 +2659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2605,7 +2667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2613,7 +2675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -2621,7 +2683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -2629,7 +2691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -2637,7 +2699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2645,7 +2707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -2653,7 +2715,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2661,7 +2723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -2669,12 +2731,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -2682,7 +2744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>184</v>
       </c>
@@ -2690,7 +2752,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -2698,7 +2760,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -2706,7 +2768,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -2714,7 +2776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -2722,7 +2784,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>177</v>
       </c>
@@ -2730,13 +2792,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="71" t="s">
+    <row r="36" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="72"/>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="61"/>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
@@ -2744,7 +2806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
@@ -2752,7 +2814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
@@ -2760,7 +2822,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
@@ -2768,13 +2830,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +2844,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>102</v>
       </c>
@@ -2790,7 +2852,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -2798,7 +2860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>72</v>
       </c>
@@ -2806,7 +2868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>63</v>
       </c>
@@ -2814,7 +2876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
@@ -2822,13 +2884,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
@@ -2836,7 +2898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>71</v>
       </c>
@@ -2844,7 +2906,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
@@ -2852,7 +2914,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>73</v>
       </c>
@@ -2860,52 +2922,52 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="73" t="s">
+    <row r="53" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="74"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="63"/>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="61" t="s">
+    <row r="60" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="62"/>
-    </row>
-    <row r="61" spans="1:2" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="72"/>
+    </row>
+    <row r="61" spans="1:2" ht="42.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>98</v>
       </c>
@@ -2913,7 +2975,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>99</v>
       </c>
@@ -2921,7 +2983,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="14" t="s">
         <v>100</v>
       </c>
@@ -2929,13 +2991,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="63" t="s">
+    <row r="64" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="64"/>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="74"/>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
         <v>104</v>
       </c>
@@ -2943,7 +3005,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>92</v>
       </c>
@@ -2951,7 +3013,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>105</v>
       </c>
@@ -2959,7 +3021,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>94</v>
       </c>
@@ -2967,7 +3029,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>93</v>
       </c>
@@ -2975,7 +3037,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>95</v>
       </c>
@@ -2983,10 +3045,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>106</v>
       </c>
@@ -2994,7 +3056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>92</v>
       </c>
@@ -3002,7 +3064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>107</v>
       </c>
@@ -3010,7 +3072,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>108</v>
       </c>
@@ -3018,7 +3080,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>109</v>
       </c>
@@ -3026,7 +3088,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
         <v>110</v>
       </c>
@@ -3034,7 +3096,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18" t="s">
         <v>122</v>
       </c>
@@ -3042,7 +3104,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
         <v>113</v>
       </c>
@@ -3050,7 +3112,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>93</v>
       </c>
@@ -3058,7 +3120,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
         <v>114</v>
       </c>
@@ -3066,10 +3128,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>115</v>
       </c>
@@ -3077,7 +3139,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>113</v>
       </c>
@@ -3085,7 +3147,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
         <v>116</v>
       </c>
@@ -3093,7 +3155,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
         <v>117</v>
       </c>
@@ -3101,7 +3163,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="21" t="s">
         <v>118</v>
       </c>
@@ -3109,19 +3171,19 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="65" t="s">
+    <row r="88" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="65"/>
-    </row>
-    <row r="89" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="66" t="s">
+      <c r="B88" s="75"/>
+    </row>
+    <row r="89" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="67"/>
-    </row>
-    <row r="90" spans="1:2" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="77"/>
+    </row>
+    <row r="90" spans="1:2" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
         <v>181</v>
       </c>
@@ -3129,13 +3191,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
         <v>146</v>
       </c>
       <c r="B91" s="24"/>
     </row>
-    <row r="92" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
         <v>147</v>
       </c>
@@ -3143,7 +3205,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="27" t="s">
         <v>148</v>
       </c>
@@ -3151,7 +3213,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="27" t="s">
         <v>149</v>
       </c>
@@ -3159,7 +3221,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="27" t="s">
         <v>150</v>
       </c>
@@ -3167,7 +3229,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="29" t="s">
         <v>151</v>
       </c>
@@ -3175,12 +3237,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A98" s="32" t="s">
         <v>155</v>
       </c>
@@ -3188,7 +3250,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
         <v>157</v>
       </c>
@@ -3196,7 +3258,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="33" t="s">
         <v>158</v>
       </c>
@@ -3204,7 +3266,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
         <v>159</v>
       </c>
@@ -3212,25 +3274,25 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
         <v>160</v>
       </c>
       <c r="B102" s="28"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
         <v>161</v>
       </c>
       <c r="B103" s="28"/>
     </row>
-    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="34" t="s">
         <v>162</v>
       </c>
       <c r="B104" s="30"/>
     </row>
-    <row r="105" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A105" s="35" t="s">
         <v>167</v>
       </c>
@@ -3238,7 +3300,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
         <v>170</v>
       </c>
@@ -3246,7 +3308,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="35" t="s">
         <v>168</v>
       </c>
@@ -3254,7 +3316,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
         <v>169</v>
       </c>
@@ -3262,7 +3324,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="35" t="s">
         <v>171</v>
       </c>
@@ -3270,7 +3332,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>182</v>
       </c>
@@ -3278,13 +3340,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="75" t="s">
+    <row r="111" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="B111" s="76"/>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="66"/>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>187</v>
       </c>
@@ -3292,7 +3354,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>188</v>
       </c>
@@ -3300,7 +3362,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>189</v>
       </c>
@@ -3308,13 +3370,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="68" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="B115" s="68"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="64"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>191</v>
       </c>
@@ -3322,23 +3384,23 @@
         <v>196</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="57" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="B118" s="57"/>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B118" s="67"/>
+    </row>
+    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>199</v>
       </c>
@@ -3346,95 +3408,95 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="68" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="B121" s="68"/>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B121" s="64"/>
+    </row>
+    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="68" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="B123" s="68"/>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B123" s="64"/>
+    </row>
+    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="68" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="B129" s="68"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="68" t="s">
+      <c r="B129" s="64"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="68"/>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B130" s="64"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="36" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="68" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="B132" s="68"/>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="68" t="s">
+      <c r="B132" s="64"/>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="B133" s="68"/>
-    </row>
-    <row r="134" spans="1:2" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="58" t="s">
+      <c r="B133" s="64"/>
+    </row>
+    <row r="134" spans="1:2" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="B134" s="59"/>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="60" t="s">
+      <c r="B134" s="69"/>
+    </row>
+    <row r="135" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="B135" s="60"/>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="70"/>
+    </row>
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A137" s="37" t="s">
         <v>216</v>
       </c>
@@ -3442,12 +3504,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="38" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="38" t="s">
         <v>218</v>
       </c>
@@ -3455,7 +3517,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="38" t="s">
         <v>232</v>
       </c>
@@ -3463,7 +3525,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="38" t="s">
         <v>233</v>
       </c>
@@ -3471,7 +3533,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="38" t="s">
         <v>219</v>
       </c>
@@ -3479,12 +3541,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="38" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
         <v>221</v>
       </c>
@@ -3492,17 +3554,17 @@
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="38" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="38" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="38" t="s">
         <v>235</v>
       </c>
@@ -3510,10 +3572,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="38"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="38" t="s">
         <v>223</v>
       </c>
@@ -3521,7 +3583,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="38" t="s">
         <v>237</v>
       </c>
@@ -3529,7 +3591,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="38" t="s">
         <v>224</v>
       </c>
@@ -3537,10 +3599,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="38"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="38" t="s">
         <v>225</v>
       </c>
@@ -3548,7 +3610,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="39" t="s">
         <v>242</v>
       </c>
@@ -3556,8 +3618,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>244</v>
       </c>
@@ -3565,7 +3627,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>246</v>
       </c>
@@ -3573,7 +3635,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>248</v>
       </c>
@@ -3581,7 +3643,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>250</v>
       </c>
@@ -3589,7 +3651,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>252</v>
       </c>
@@ -3597,7 +3659,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>254</v>
       </c>
@@ -3605,7 +3667,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>256</v>
       </c>
@@ -3613,27 +3675,27 @@
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="40" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A164" s="41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="42" t="s">
         <v>259</v>
       </c>
@@ -3641,7 +3703,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="42" t="s">
         <v>260</v>
       </c>
@@ -3649,7 +3711,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="42" t="s">
         <v>261</v>
       </c>
@@ -3657,7 +3719,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="42" t="s">
         <v>262</v>
       </c>
@@ -3665,32 +3727,32 @@
         <v>277</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="42" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="42" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="42" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="42" t="s">
         <v>281</v>
       </c>
@@ -3698,7 +3760,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="42" t="s">
         <v>266</v>
       </c>
@@ -3706,76 +3768,76 @@
         <v>284</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="42" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="42" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="42" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="42" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="42" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="42" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="42" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="42" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="42"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="42" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="43" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="57" t="s">
+    <row r="191" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="B191" s="57"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="67"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>278</v>
       </c>
@@ -3783,7 +3845,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>285</v>
       </c>
@@ -3791,7 +3853,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A195" s="41" t="s">
         <v>287</v>
       </c>
@@ -3799,18 +3861,18 @@
         <v>290</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="42" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="43" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="199" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A199" s="41" t="s">
         <v>291</v>
       </c>
@@ -3818,33 +3880,33 @@
         <v>297</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="42" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="42" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="42" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="42" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="43" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>298</v>
       </c>
@@ -3854,6 +3916,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A53:B53"/>
@@ -3864,15 +3935,6 @@
     <mergeCell ref="A118:B118"/>
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3880,20 +3942,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.140625" customWidth="1"/>
-    <col min="2" max="2" width="106.7109375" customWidth="1"/>
+    <col min="1" max="1" width="65.109375" customWidth="1"/>
+    <col min="2" max="2" width="106.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>330</v>
       </c>
@@ -3901,7 +3963,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>331</v>
       </c>
@@ -3909,23 +3971,23 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>330</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>336</v>
       </c>
@@ -3933,23 +3995,23 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>330</v>
       </c>
       <c r="B7" s="48"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>339</v>
       </c>
@@ -3957,23 +4019,23 @@
         <v>341</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="46" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>330</v>
       </c>
       <c r="B13" s="51"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>334</v>
       </c>
@@ -3981,19 +4043,19 @@
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="54" t="s">
         <v>342</v>
       </c>
       <c r="B15" s="55"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="52" t="s">
         <v>330</v>
       </c>
       <c r="B16" s="50"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="53" t="s">
         <v>334</v>
       </c>
@@ -4001,19 +4063,19 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="54" t="s">
         <v>351</v>
       </c>
       <c r="B18" s="55"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="52" t="s">
         <v>330</v>
       </c>
       <c r="B19" s="50"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="53" t="s">
         <v>334</v>
       </c>
@@ -4021,19 +4083,19 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="54" t="s">
         <v>353</v>
       </c>
       <c r="B21" s="56"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="52" t="s">
         <v>330</v>
       </c>
       <c r="B22" s="50"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
         <v>334</v>
       </c>
@@ -4041,19 +4103,19 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="54" t="s">
         <v>355</v>
       </c>
       <c r="B24" s="56"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="52" t="s">
         <v>330</v>
       </c>
       <c r="B25" s="50"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
         <v>334</v>
       </c>
@@ -4061,24 +4123,24 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="54" t="s">
         <v>357</v>
       </c>
       <c r="B27" s="56"/>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="79" t="s">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="B28" s="79"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="78"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>301</v>
       </c>
@@ -4086,7 +4148,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>304</v>
       </c>
@@ -4094,13 +4156,13 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="79" t="s">
+    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
         <v>306</v>
       </c>
-      <c r="B32" s="79"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="78"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>307</v>
       </c>
@@ -4108,7 +4170,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>309</v>
       </c>
@@ -4116,7 +4178,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>311</v>
       </c>
@@ -4124,7 +4186,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>313</v>
       </c>
@@ -4132,13 +4194,13 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="79" t="s">
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="B37" s="79"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="78"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>316</v>
       </c>
@@ -4146,7 +4208,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>318</v>
       </c>
@@ -4154,7 +4216,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>320</v>
       </c>
@@ -4162,7 +4224,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>322</v>
       </c>
@@ -4170,7 +4232,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>324</v>
       </c>
@@ -4178,7 +4240,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>325</v>
       </c>
@@ -4186,7 +4248,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>328</v>
       </c>
@@ -4194,13 +4256,13 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="79" t="s">
+    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="B45" s="79"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="78"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>345</v>
       </c>
@@ -4208,7 +4270,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>347</v>
       </c>
@@ -4216,7 +4278,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>349</v>
       </c>
@@ -4224,7 +4286,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>350</v>
       </c>
@@ -4232,7 +4294,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>359</v>
       </c>
@@ -4240,24 +4302,24 @@
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="79" t="s">
+    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="78" t="s">
         <v>361</v>
       </c>
-      <c r="B51" s="79"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="78"/>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
         <v>363</v>
       </c>
       <c r="B53" s="48"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>364</v>
       </c>
@@ -4265,19 +4327,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="46" t="s">
         <v>365</v>
       </c>
       <c r="B55" s="56"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="52" t="s">
         <v>363</v>
       </c>
       <c r="B56" s="48"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="53" t="s">
         <v>367</v>
       </c>
@@ -4285,19 +4347,19 @@
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="54" t="s">
         <v>368</v>
       </c>
       <c r="B58" s="56"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="52" t="s">
         <v>363</v>
       </c>
       <c r="B59" s="48"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="53" t="s">
         <v>370</v>
       </c>
@@ -4305,18 +4367,18 @@
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="54" t="s">
         <v>368</v>
       </c>
       <c r="B61" s="56"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="52" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="53" t="s">
         <v>334</v>
       </c>
@@ -4324,80 +4386,80 @@
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="54" t="s">
         <v>371</v>
       </c>
       <c r="B64" s="55"/>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="78" t="s">
+    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="79" t="s">
         <v>374</v>
       </c>
-      <c r="B65" s="78"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="80" t="s">
+      <c r="B65" s="79"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="57" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="55"/>
       <c r="B75" s="55" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="53" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="53" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="53" t="s">
         <v>381</v>
       </c>
@@ -4405,33 +4467,33 @@
         <v>386</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="53" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="53" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="55" t="s">
         <v>385</v>
       </c>
       <c r="B82" s="55"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="52" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="53" t="s">
         <v>334</v>
       </c>
@@ -4439,28 +4501,28 @@
         <v>390</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="53" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="54" t="s">
         <v>335</v>
       </c>
       <c r="B86" s="56"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="52" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="53" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="53" t="s">
         <v>393</v>
       </c>
@@ -4468,33 +4530,33 @@
         <v>395</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="53" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="54" t="s">
         <v>394</v>
       </c>
       <c r="B91" s="56"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="52" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="53" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="53" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="53" t="s">
         <v>399</v>
       </c>
@@ -4502,30 +4564,194 @@
         <v>403</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="53" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="53" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="54" t="s">
         <v>402</v>
       </c>
       <c r="B98" s="56"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="77" t="s">
+    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="79" t="s">
         <v>405</v>
       </c>
-      <c r="B99" s="77"/>
+      <c r="B99" s="79"/>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="57" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="B102" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="B105" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="55"/>
+      <c r="B111" s="55"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="53" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="53" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="B115" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="53" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="B119" s="56"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B121" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="B123" s="56"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="B125" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="B127" s="56"/>
+    </row>
+    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="B128" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A128:B128"/>
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A32:B32"/>
